--- a/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B52445F-E147-4F75-8EF0-20535C1730DF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="BRQS" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
   <si>
     <t>BRQS</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,49 +654,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42916</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42551</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -741,17 +706,20 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>154300</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>3</v>
+        <v>128400</v>
+      </c>
+      <c r="E8" s="3">
+        <v>122200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -768,18 +736,21 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>134400</v>
+      </c>
+      <c r="E9" s="3">
         <v>127100</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
       </c>
@@ -795,17 +766,20 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>27200</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+        <v>-6000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-4900</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -822,9 +796,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,16 +813,17 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6400</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>12500</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -862,9 +840,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -889,9 +870,12 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -916,36 +900,42 @@
       <c r="J14" s="3">
         <v>0</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -954,23 +944,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>162200</v>
+        <v>195100</v>
       </c>
       <c r="E17" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F17" s="3">
         <v>2000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>500</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -980,17 +971,20 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
+        <v>-66700</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-8400</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1007,9 +1001,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1021,16 +1018,17 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
+        <v>500</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-200</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1047,17 +1045,20 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-3500</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+        <v>-59700</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-3900</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1074,17 +1075,20 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1900</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+        <v>2600</v>
+      </c>
+      <c r="E22" s="3">
+        <v>1800</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1101,24 +1105,27 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10000</v>
+        <v>-68700</v>
       </c>
       <c r="E23" s="3">
+        <v>-10400</v>
+      </c>
+      <c r="F23" s="3">
         <v>-1800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1128,18 +1135,21 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>300</v>
+      </c>
+      <c r="E24" s="3">
         <v>2300</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1155,9 +1165,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1182,24 +1195,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-12400</v>
+        <v>-69100</v>
       </c>
       <c r="E26" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-1800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1209,24 +1225,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-19500</v>
+        <v>-68800</v>
       </c>
       <c r="E27" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-1800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1236,9 +1255,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1263,36 +1285,42 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-2900</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1317,9 +1345,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1344,17 +1375,20 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
+        <v>-500</v>
+      </c>
+      <c r="E32" s="3">
+        <v>200</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1371,24 +1405,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-19500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-1800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1398,9 +1435,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1425,24 +1465,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-19500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-1800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1452,29 +1495,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42916</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42551</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1484,9 +1530,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1498,8 +1547,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1511,23 +1561,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>13100</v>
+        <v>1900</v>
       </c>
       <c r="E41" s="3">
+        <v>13000</v>
+      </c>
+      <c r="F41" s="3">
         <v>300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1537,9 +1588,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1564,17 +1618,20 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>79200</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
+        <v>6600</v>
+      </c>
+      <c r="E43" s="3">
+        <v>76600</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1591,17 +1648,20 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>17000</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>3</v>
+        <v>6800</v>
+      </c>
+      <c r="E44" s="3">
+        <v>16800</v>
       </c>
       <c r="F44" s="3" t="s">
         <v>3</v>
@@ -1618,24 +1678,27 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>10200</v>
+        <v>38500</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>34300</v>
       </c>
       <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1645,24 +1708,27 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>119500</v>
+        <v>53800</v>
       </c>
       <c r="E46" s="3">
+        <v>133800</v>
+      </c>
+      <c r="F46" s="3">
         <v>300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>500</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1672,24 +1738,27 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E47" s="3">
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3">
         <v>53600</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>59900</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1699,17 +1768,20 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>1400</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
+        <v>300</v>
+      </c>
+      <c r="E48" s="3">
+        <v>500</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1726,17 +1798,20 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>20700</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>11400</v>
+      </c>
+      <c r="E49" s="3">
+        <v>12400</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1753,9 +1828,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1780,9 +1858,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1807,17 +1888,20 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7100</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>14800</v>
+      </c>
+      <c r="E52" s="3">
+        <v>17000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1834,9 +1918,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1861,24 +1948,27 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>148700</v>
+        <v>80400</v>
       </c>
       <c r="E54" s="3">
+        <v>163000</v>
+      </c>
+      <c r="F54" s="3">
         <v>53900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>60400</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1888,9 +1978,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1902,8 +1995,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1915,23 +2009,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>49700</v>
+        <v>18800</v>
       </c>
       <c r="E57" s="3">
+        <v>45500</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1941,21 +2036,24 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E58" s="3">
         <v>18100</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1968,24 +2066,27 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>25000</v>
+        <v>47600</v>
       </c>
       <c r="E59" s="3">
+        <v>46900</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>100</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1995,24 +2096,27 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>92700</v>
+        <v>83100</v>
       </c>
       <c r="E60" s="3">
+        <v>107000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2022,9 +2126,12 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2049,17 +2156,20 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>9000</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>3</v>
+        <v>17900</v>
+      </c>
+      <c r="E62" s="3">
+        <v>7500</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2076,9 +2186,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2103,9 +2216,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2130,9 +2246,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2157,24 +2276,27 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>100900</v>
+        <v>102600</v>
       </c>
       <c r="E66" s="3">
+        <v>115200</v>
+      </c>
+      <c r="F66" s="3">
         <v>1500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>300</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,9 +2306,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2198,8 +2323,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2224,9 +2350,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2251,9 +2380,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2278,9 +2410,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2305,24 +2440,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-144100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-72300</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-400</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2332,9 +2470,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2359,9 +2500,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2386,9 +2530,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2413,24 +2560,27 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E76" s="3">
         <v>47800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>52400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>60200</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2440,9 +2590,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2467,29 +2620,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42916</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42551</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2499,24 +2655,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-19500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-1800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,9 +2685,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2540,17 +2702,18 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E83" s="3">
         <v>4700</v>
       </c>
-      <c r="E83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2566,9 +2729,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2593,9 +2759,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2620,9 +2789,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2647,9 +2819,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2674,9 +2849,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2701,24 +2879,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-14900</v>
+        <v>2600</v>
       </c>
       <c r="E89" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2728,9 +2909,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2742,17 +2926,18 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2768,9 +2953,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2795,9 +2983,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2822,24 +3013,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>6500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-59800</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2849,9 +3043,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2863,8 +3060,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2889,9 +3087,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2916,9 +3117,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2943,9 +3147,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2970,24 +3177,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E100" s="3">
         <v>31900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>60600</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2997,18 +3207,21 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>600</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3024,24 +3237,27 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>9500</v>
+        <v>-13500</v>
       </c>
       <c r="E102" s="3">
+        <v>11800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>500</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3051,7 +3267,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
   <si>
     <t>BRQS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,41 +665,41 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42916</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42551</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,21 +709,24 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E8" s="3">
         <v>128400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>122200</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -739,21 +742,24 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>98400</v>
+      </c>
+      <c r="E9" s="3">
         <v>134400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>127100</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -769,21 +775,24 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>-6000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-4900</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -799,9 +808,12 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -814,20 +826,21 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
         <v>6200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>12500</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
       </c>
@@ -843,9 +856,12 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -873,9 +889,12 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -903,20 +922,23 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E15" s="3">
         <v>200</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+      <c r="F15" s="3">
+        <v>200</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -930,12 +952,15 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -945,26 +970,27 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>128100</v>
+      </c>
+      <c r="E17" s="3">
         <v>195100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>130600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>500</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
       </c>
@@ -974,21 +1000,24 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-29200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-66700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-8400</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1004,9 +1033,12 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1019,20 +1051,21 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E20" s="3">
         <v>500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1048,21 +1081,24 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-21500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-59700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-3900</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1078,21 +1114,24 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E22" s="3">
         <v>2600</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>1800</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1108,27 +1147,30 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-32500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-68700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-10400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-1800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1138,21 +1180,24 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E24" s="3">
         <v>300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>2300</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1168,9 +1213,12 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1198,27 +1246,30 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-31600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-69100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-12800</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-1800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,27 +1279,30 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-30300</v>
+      </c>
+      <c r="E27" s="3">
         <v>-68800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-20000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-1800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1258,9 +1312,12 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1288,21 +1345,24 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="E29" s="3">
         <v>-2900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>400</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1315,12 +1375,15 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1348,9 +1411,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1378,21 +1444,24 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1408,27 +1477,30 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E33" s="3">
         <v>-71800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-19500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-1800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,9 +1510,12 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1468,27 +1543,30 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E35" s="3">
         <v>-71800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-19500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-1800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1498,32 +1576,35 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42916</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42551</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1533,9 +1614,12 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1548,8 +1632,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1562,26 +1647,27 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>500</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1591,9 +1677,12 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1621,21 +1710,24 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E43" s="3">
         <v>6600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>76600</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1651,21 +1743,24 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4500</v>
+      </c>
+      <c r="E44" s="3">
         <v>6800</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>16800</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1681,27 +1776,30 @@
       <c r="K44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27900</v>
+      </c>
+      <c r="E45" s="3">
         <v>38500</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>34300</v>
       </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
       <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1711,27 +1809,30 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>35100</v>
+      </c>
+      <c r="E46" s="3">
         <v>53800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>133800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>500</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,9 +1842,12 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1753,15 +1857,15 @@
       <c r="E47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="3">
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3">
         <v>53600</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>59900</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1771,21 +1875,24 @@
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>900</v>
+      </c>
+      <c r="E48" s="3">
         <v>300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>500</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1801,21 +1908,24 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E49" s="3">
         <v>11400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>12400</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1831,9 +1941,12 @@
       <c r="K49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1861,9 +1974,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1891,21 +2007,24 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E52" s="3">
         <v>14800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>17000</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1921,9 +2040,12 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1951,27 +2073,30 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>56800</v>
+      </c>
+      <c r="E54" s="3">
         <v>80400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>163000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>53900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>60400</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,9 +2106,12 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1996,8 +2124,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2010,26 +2139,27 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>48800</v>
+      </c>
+      <c r="E57" s="3">
         <v>18800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>45500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>200</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2039,24 +2169,27 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E58" s="3">
         <v>16800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2069,27 +2202,30 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>32800</v>
+      </c>
+      <c r="E59" s="3">
         <v>47600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>100</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2099,27 +2235,30 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>99600</v>
+      </c>
+      <c r="E60" s="3">
         <v>83100</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>107000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2129,9 +2268,12 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2159,21 +2301,24 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E62" s="3">
         <v>17900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7500</v>
       </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2189,9 +2334,12 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2219,9 +2367,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2249,9 +2400,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2279,27 +2433,30 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>101100</v>
+      </c>
+      <c r="E66" s="3">
         <v>102600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>115200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>1500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>300</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2309,9 +2466,12 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2324,8 +2484,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2353,9 +2514,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2383,9 +2547,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2413,9 +2580,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2443,27 +2613,30 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-177600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-144100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-72300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-400</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2473,9 +2646,12 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2503,9 +2679,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2533,9 +2712,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2563,27 +2745,30 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="E76" s="3">
         <v>-22200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>47800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>52400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>60200</v>
       </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2593,9 +2778,12 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2623,32 +2811,35 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42916</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42551</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2658,27 +2849,30 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-34400</v>
+      </c>
+      <c r="E81" s="3">
         <v>-71800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-19500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-1800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2688,9 +2882,12 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2703,20 +2900,21 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
         <v>6500</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2732,9 +2930,12 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2762,9 +2963,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2792,9 +2996,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2822,9 +3029,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2852,9 +3062,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2882,27 +3095,30 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="E89" s="3">
         <v>2600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-12600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2912,9 +3128,12 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2927,20 +3146,21 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-800</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2956,9 +3176,12 @@
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2986,9 +3209,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3016,27 +3242,30 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-4300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-8100</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>6500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-59800</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3046,9 +3275,12 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3061,8 +3293,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3090,9 +3323,12 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3120,9 +3356,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3150,9 +3389,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3180,27 +3422,30 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-11500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>31900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>60600</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3210,21 +3455,24 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>600</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3240,27 +3488,30 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>11800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>500</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3270,7 +3521,10 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
   <si>
     <t>BRQS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,44 +665,44 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42916</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42551</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -712,24 +712,27 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>26800</v>
+      </c>
+      <c r="E8" s="3">
         <v>99000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>128400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>122200</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,24 +748,27 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>25200</v>
+      </c>
+      <c r="E9" s="3">
         <v>98400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>134400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>127100</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -778,24 +784,27 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>-6000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-4900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -811,9 +820,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -827,23 +839,24 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8100</v>
+      </c>
+      <c r="E12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>6200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>12500</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -859,9 +872,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -892,32 +908,35 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-10100</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -925,9 +944,12 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -935,13 +957,13 @@
         <v>100</v>
       </c>
       <c r="E15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F15" s="3">
         <v>200</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>200</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -955,12 +977,15 @@
       <c r="K15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -971,29 +996,30 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E17" s="3">
         <v>128100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>195100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>130600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>2000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1003,24 +1029,27 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-30500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-29200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-66700</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-8400</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1036,9 +1065,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1052,23 +1084,24 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E20" s="3">
         <v>1600</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1084,24 +1117,27 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-26300</v>
+      </c>
+      <c r="E21" s="3">
         <v>-21500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-59700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-3900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1117,24 +1153,27 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E22" s="3">
         <v>5000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>1800</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1150,30 +1189,33 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="E23" s="3">
         <v>-32500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-68700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-10400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1183,24 +1225,27 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>2300</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1216,9 +1261,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1249,30 +1297,33 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-36100</v>
+      </c>
+      <c r="E26" s="3">
         <v>-31600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-69100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-12800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1282,30 +1333,33 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-36800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-30300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-68800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-20000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1315,9 +1369,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1348,24 +1405,27 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E29" s="3">
         <v>-4200</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-2900</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>400</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1378,12 +1438,15 @@
       <c r="K29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="L29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1414,9 +1477,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,24 +1513,27 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1600</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1480,30 +1549,33 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E33" s="3">
         <v>-34400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-71800</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-19500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1513,9 +1585,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,30 +1621,33 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E35" s="3">
         <v>-34400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-71800</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-19500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1579,35 +1657,38 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42916</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42551</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1617,9 +1698,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1633,8 +1717,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1648,29 +1733,30 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>500</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1680,9 +1766,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1713,24 +1802,27 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>900</v>
+      </c>
+      <c r="E43" s="3">
         <v>1700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>6600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>76600</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1746,24 +1838,27 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E44" s="3">
         <v>4500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>6800</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>16800</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1779,30 +1874,33 @@
       <c r="L44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>17200</v>
+      </c>
+      <c r="E45" s="3">
         <v>27900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>38500</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>34300</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
       <c r="H45" s="3">
+        <v>0</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1812,30 +1910,33 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E46" s="3">
         <v>35100</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>53800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,9 +1946,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1860,15 +1964,15 @@
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
         <v>53600</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>59900</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1878,9 +1982,12 @@
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1888,14 +1995,14 @@
         <v>900</v>
       </c>
       <c r="E48" s="3">
+        <v>900</v>
+      </c>
+      <c r="F48" s="3">
         <v>300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>500</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1911,24 +2018,27 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E49" s="3">
         <v>9400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>11400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>12400</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1944,9 +2054,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1977,9 +2090,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2010,24 +2126,27 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E52" s="3">
         <v>11300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>14800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>17000</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,9 +2162,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2076,30 +2198,33 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E54" s="3">
         <v>56800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>80400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>163000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>53900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>60400</v>
       </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2109,9 +2234,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2253,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2140,29 +2269,30 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E57" s="3">
         <v>48800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>18800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>45500</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>200</v>
       </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2172,27 +2302,30 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E58" s="3">
         <v>18000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>16800</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,30 +2338,33 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>58400</v>
+      </c>
+      <c r="E59" s="3">
         <v>32800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>47600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>46900</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>100</v>
       </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,30 +2374,33 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>86800</v>
+      </c>
+      <c r="E60" s="3">
         <v>99600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>83100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>107000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2271,14 +2410,17 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>1300</v>
       </c>
       <c r="E61" s="3">
         <v>0</v>
@@ -2304,24 +2446,27 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E62" s="3">
         <v>4200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>17900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>7500</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2337,9 +2482,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2370,9 +2518,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2403,9 +2554,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2436,30 +2590,33 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>91500</v>
+      </c>
+      <c r="E66" s="3">
         <v>101100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>102600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>115200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>1500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2469,9 +2626,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2485,8 +2645,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2517,9 +2678,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2550,9 +2714,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2583,9 +2750,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2616,30 +2786,33 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-213100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-177600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-144100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-72300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-2200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-400</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,9 +2822,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2682,9 +2858,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2715,9 +2894,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2748,30 +2930,33 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-62100</v>
+      </c>
+      <c r="E76" s="3">
         <v>-44300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-22200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>47800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>52400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>60200</v>
       </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2781,9 +2966,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2814,35 +3002,38 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42916</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42551</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2852,30 +3043,33 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E81" s="3">
         <v>-34400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-71800</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-19500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2885,9 +3079,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2901,23 +3098,24 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E83" s="3">
         <v>6100</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>4700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2933,9 +3131,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2966,9 +3167,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2999,9 +3203,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3032,9 +3239,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3065,9 +3275,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3098,30 +3311,33 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="E89" s="3">
         <v>-7400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>2600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3131,9 +3347,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3147,8 +3366,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3156,14 +3376,14 @@
         <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-800</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3179,9 +3399,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3212,9 +3435,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3245,30 +3471,33 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-4300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-8100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-59800</v>
       </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3278,9 +3507,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3294,8 +3526,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3326,9 +3559,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3359,9 +3595,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3392,9 +3631,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3425,30 +3667,33 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E100" s="3">
         <v>11600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-11500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>31900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>60600</v>
       </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3458,24 +3703,27 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>200</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>600</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3491,30 +3739,33 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E102" s="3">
         <v>5300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>11800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>500</v>
       </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3524,7 +3775,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
   <si>
     <t>BRQS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42551</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -715,27 +715,30 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E8" s="3">
         <v>26800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>99000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>128400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>122200</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -751,27 +754,30 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E9" s="3">
         <v>25200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>98400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>134400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>127100</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
       </c>
@@ -787,27 +793,30 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>1600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-6000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-4900</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
       </c>
@@ -823,9 +832,12 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -840,26 +852,27 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="E12" s="3">
         <v>8100</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>6200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>12500</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
@@ -875,9 +888,12 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -911,18 +927,21 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>17500</v>
+      </c>
+      <c r="E14" s="3">
         <v>-10100</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
       </c>
@@ -938,8 +957,8 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -947,9 +966,12 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -960,13 +982,13 @@
         <v>100</v>
       </c>
       <c r="F15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
+      <c r="H15" s="3">
+        <v>200</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>3</v>
@@ -980,12 +1002,15 @@
       <c r="L15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="M15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -997,32 +1022,33 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>74300</v>
+      </c>
+      <c r="E17" s="3">
         <v>57200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>128100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>195100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>130600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>2000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1032,27 +1058,30 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="E18" s="3">
         <v>-30500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-29200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-66700</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-8400</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1068,9 +1097,12 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1085,26 +1117,27 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E20" s="3">
         <v>-1400</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1600</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>500</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1120,27 +1153,30 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E21" s="3">
         <v>-26300</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-21500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-59700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-3900</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,27 +1192,30 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E22" s="3">
         <v>3800</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>5000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>2600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>1800</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1192,33 +1231,36 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-57000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-35700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-32500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-68700</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-10400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-1800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1228,27 +1270,30 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>2300</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,9 +1309,12 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1300,33 +1348,36 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-56600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-36100</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-31600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-69100</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-12800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-1800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1336,33 +1387,36 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E27" s="3">
         <v>-36800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-30300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-68800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-20000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-1800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1372,9 +1426,12 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1408,27 +1465,30 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>1300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-4200</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-2900</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>400</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1441,12 +1501,15 @@
       <c r="L29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="M29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1480,9 +1543,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1516,27 +1582,30 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>300</v>
+      </c>
+      <c r="E32" s="3">
         <v>1400</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1600</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-500</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1552,33 +1621,36 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E33" s="3">
         <v>-35500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-34400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-71800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-19500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,9 +1660,12 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1624,33 +1699,36 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E35" s="3">
         <v>-35500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-34400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-71800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-19500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1660,38 +1738,41 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42551</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1701,9 +1782,12 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1718,8 +1802,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1734,32 +1819,33 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7700</v>
+      </c>
+      <c r="E41" s="3">
         <v>3000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>500</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1769,9 +1855,12 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1805,27 +1894,30 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>6600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>76600</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1841,27 +1933,30 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>7200</v>
+      </c>
+      <c r="E44" s="3">
         <v>2700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>6800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>16800</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1877,33 +1972,36 @@
       <c r="M44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>25400</v>
+      </c>
+      <c r="E45" s="3">
         <v>17200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>27900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>38500</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>34300</v>
       </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1913,33 +2011,36 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E46" s="3">
         <v>23900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>35100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>53800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1949,14 +2050,17 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
+      <c r="D47" s="3">
+        <v>1500</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>3</v>
@@ -1967,15 +2071,15 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
         <v>53600</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>59900</v>
       </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1985,27 +2089,30 @@
       <c r="M47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>900</v>
+        <v>2500</v>
       </c>
       <c r="E48" s="3">
         <v>900</v>
       </c>
       <c r="F48" s="3">
+        <v>900</v>
+      </c>
+      <c r="G48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>500</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,27 +2128,30 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>17600</v>
+      </c>
+      <c r="E49" s="3">
         <v>3500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>9400</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>11400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>12400</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2057,9 +2167,12 @@
       <c r="M49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2093,9 +2206,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2129,27 +2245,30 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
         <v>1100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>11300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>14800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17000</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2165,9 +2284,12 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2201,33 +2323,36 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>53300</v>
+      </c>
+      <c r="E54" s="3">
         <v>29400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>56800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>80400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>163000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>53900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>60400</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2237,9 +2362,12 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2254,8 +2382,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2270,32 +2399,33 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E57" s="3">
         <v>13000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>48800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>18800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>45500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2305,30 +2435,33 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E58" s="3">
         <v>15400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>18000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>16800</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>18100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2341,33 +2474,36 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E59" s="3">
         <v>58400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>47600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>46900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>700</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>100</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2377,33 +2513,36 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>64400</v>
+      </c>
+      <c r="E60" s="3">
         <v>86800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>99600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>83100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>107000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2413,18 +2552,21 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
-        <v>0</v>
-      </c>
       <c r="F61" s="3">
         <v>0</v>
       </c>
@@ -2449,27 +2591,30 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E62" s="3">
         <v>3500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>4200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>17900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>7500</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2485,9 +2630,12 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2521,9 +2669,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2557,9 +2708,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2593,33 +2747,36 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>76500</v>
+      </c>
+      <c r="E66" s="3">
         <v>91500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>101100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>102600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>115200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>1500</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>300</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2629,9 +2786,12 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2646,8 +2806,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2681,9 +2842,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2717,9 +2881,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2753,9 +2920,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2789,33 +2959,36 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-269100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-213100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-177600</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-144100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-72300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-2200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-400</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2825,9 +2998,12 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2861,9 +3037,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2897,9 +3076,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2933,33 +3115,36 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-62100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-44300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-22200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>47800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>52400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>60200</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2969,9 +3154,12 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3005,38 +3193,41 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42551</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3046,33 +3237,36 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-55900</v>
+      </c>
+      <c r="E81" s="3">
         <v>-35500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-34400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-71800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-19500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3082,9 +3276,12 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3099,26 +3296,27 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E83" s="3">
         <v>5600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>6100</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>4700</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3134,9 +3332,12 @@
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3170,9 +3371,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3206,9 +3410,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3242,9 +3449,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3278,9 +3488,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3314,33 +3527,36 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7400</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>2600</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-12600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-400</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3350,9 +3566,12 @@
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3367,26 +3586,27 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-100</v>
+        <v>-800</v>
       </c>
       <c r="E91" s="3">
         <v>-100</v>
       </c>
       <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-800</v>
       </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3402,9 +3622,12 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3438,9 +3661,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3474,33 +3700,36 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E94" s="3">
         <v>4000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-4300</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-8100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>6500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-59800</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3510,9 +3739,12 @@
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3527,8 +3759,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3562,9 +3795,12 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3598,9 +3834,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3634,9 +3873,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3670,33 +3912,36 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>11600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-11500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>31900</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>60600</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3706,27 +3951,30 @@
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>300</v>
+      </c>
+      <c r="E101" s="3">
         <v>200</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>600</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,33 +3990,36 @@
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>11800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3778,7 +4029,10 @@
       <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>BRQS</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,50 @@
     <col min="1" max="1" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42551</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -718,30 +718,33 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>52500</v>
+      </c>
+      <c r="E8" s="3">
         <v>29600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>26800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>99000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>128400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>122200</v>
       </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
@@ -757,30 +760,33 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O8" s="3"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>-29100</v>
+      </c>
+      <c r="E9" s="3">
         <v>27000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>25200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>98400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>134400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>127100</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
@@ -796,30 +802,33 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>81700</v>
+      </c>
+      <c r="E10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-6000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-4900</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
@@ -835,9 +844,12 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O10" s="3"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -853,29 +865,30 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="E12" s="3">
         <v>5200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8100</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>6200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>12500</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
@@ -891,9 +904,12 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O12" s="3"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -930,21 +946,24 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="3">
         <v>17500</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-10100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
       </c>
@@ -960,8 +979,8 @@
       <c r="K14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -969,14 +988,17 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-      <c r="O14" s="3"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
-        <v>100</v>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -985,13 +1007,13 @@
         <v>100</v>
       </c>
       <c r="G15" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H15" s="3">
         <v>200</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
+      <c r="I15" s="3">
+        <v>200</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
@@ -1005,12 +1027,15 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="N15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1023,35 +1048,36 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3">
         <v>74300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>57200</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>128100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>195100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>130600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>2000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1061,30 +1087,33 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O17" s="3"/>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3"/>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3">
         <v>-44800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-30500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-29200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-66700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-8400</v>
       </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1100,9 +1129,12 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O18" s="3"/>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3"/>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1118,29 +1150,30 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3">
         <v>-300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-1400</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1600</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1156,30 +1189,33 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O20" s="3"/>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3">
         <v>-42900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-26300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-21500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-59700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-3900</v>
       </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1195,30 +1231,33 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O21" s="3"/>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3"/>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>12000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>3800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>5000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>2600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>1800</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1234,36 +1273,39 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3"/>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3"/>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-35700</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-32500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-68700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-10400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-1800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1273,30 +1315,33 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O23" s="3"/>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3"/>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>-400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-900</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>300</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>2300</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1312,9 +1357,12 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O24" s="3"/>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3"/>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1351,36 +1399,39 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-      <c r="O25" s="3"/>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3"/>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3">
         <v>-56600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-36100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-31600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-69100</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-12800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-1800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1390,36 +1441,39 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O26" s="3"/>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3"/>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3">
         <v>-55900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-36800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-30300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-68800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-20000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-1800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1429,9 +1483,12 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O27" s="3"/>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3"/>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1468,30 +1525,33 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-      <c r="O28" s="3"/>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3"/>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-9900</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>1300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-4200</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-2900</v>
       </c>
-      <c r="H29" s="3">
+      <c r="I29" s="3">
         <v>400</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1504,12 +1564,15 @@
       <c r="M29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
-      </c>
-      <c r="O29" s="3"/>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="N29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3"/>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1546,9 +1609,12 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-      <c r="O30" s="3"/>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1585,30 +1651,33 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-      <c r="O31" s="3"/>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3">
         <v>300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>1400</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1600</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1624,36 +1693,39 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O32" s="3"/>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3"/>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3">
         <v>-55900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-35500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-34400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-71800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-19500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-1800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,9 +1735,12 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O33" s="3"/>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3"/>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1702,36 +1777,39 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-      <c r="O34" s="3"/>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3"/>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3">
         <v>-55900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-35500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-34400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-71800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-19500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-1800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1741,41 +1819,44 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O35" s="3"/>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3"/>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42551</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1785,9 +1866,12 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2"/>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1803,8 +1887,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1820,35 +1905,36 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E41" s="3">
         <v>7700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>3000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>13000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>500</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1858,9 +1944,12 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O41" s="3"/>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P41" s="3"/>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1897,30 +1986,33 @@
       <c r="N42" s="3">
         <v>0</v>
       </c>
-      <c r="O42" s="3"/>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3"/>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E43" s="3">
+      <c r="D43" s="3">
+        <v>3500</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>6600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>76600</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1936,30 +2028,33 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O43" s="3"/>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3"/>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E44" s="3">
         <v>7200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>2700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>6800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>16800</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1975,36 +2070,39 @@
       <c r="N44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O44" s="3"/>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P44" s="3"/>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
         <v>25400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>17200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>27900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>38500</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>34300</v>
       </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
       <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2014,36 +2112,39 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O45" s="3"/>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P45" s="3"/>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3">
+      <c r="D46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="3">
         <v>31200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>35100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>53800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2053,18 +2154,21 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O46" s="3"/>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P46" s="3"/>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3">
         <v>1500</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2074,15 +2178,15 @@
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3">
         <v>53600</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>59900</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2092,30 +2196,33 @@
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O47" s="3"/>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3"/>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>2500</v>
-      </c>
-      <c r="E48" s="3">
-        <v>900</v>
       </c>
       <c r="F48" s="3">
         <v>900</v>
       </c>
       <c r="G48" s="3">
+        <v>900</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>500</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2131,30 +2238,33 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O48" s="3"/>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P48" s="3"/>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
+      <c r="D49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="3">
         <v>17600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>3500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>9400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>11400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>12400</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,9 +2280,12 @@
       <c r="N49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O49" s="3"/>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P49" s="3"/>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2209,9 +2322,12 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-      <c r="O50" s="3"/>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3"/>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2248,30 +2364,33 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-      <c r="O51" s="3"/>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3"/>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E52" s="3">
         <v>500</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>1100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>11300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>14800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17000</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2287,9 +2406,12 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O52" s="3"/>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3"/>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2326,36 +2448,39 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-      <c r="O53" s="3"/>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3"/>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>30100</v>
+      </c>
+      <c r="E54" s="3">
         <v>53300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>29400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>56800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>80400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>163000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>53900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>60400</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2365,9 +2490,12 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O54" s="3"/>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P54" s="3"/>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2383,8 +2511,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2400,35 +2529,36 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3">
+      <c r="D57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E57" s="3">
         <v>10200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>13000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>48800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>18800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>45500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,33 +2568,36 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O57" s="3"/>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P57" s="3"/>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>12500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>15400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>18000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>16800</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>18100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2477,36 +2610,39 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O58" s="3"/>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3"/>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3">
+      <c r="D59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="3">
         <v>41700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>58400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>47600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>100</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2516,36 +2652,39 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P59" s="3"/>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3">
+      <c r="D60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E60" s="3">
         <v>64400</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>86800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>99600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>83100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>107000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2555,21 +2694,24 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O60" s="3"/>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P60" s="3"/>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>0</v>
+      </c>
+      <c r="E61" s="3">
         <v>700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1300</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2594,30 +2736,33 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-      <c r="O61" s="3"/>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3"/>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3">
+      <c r="D62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="3">
         <v>5500</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3500</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>4200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>17900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>7500</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2633,9 +2778,12 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O62" s="3"/>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P62" s="3"/>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2672,9 +2820,12 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-      <c r="O63" s="3"/>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3"/>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2711,9 +2862,12 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3"/>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2750,36 +2904,39 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-      <c r="O65" s="3"/>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3"/>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>41300</v>
+      </c>
+      <c r="E66" s="3">
         <v>76500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>91500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>101100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>102600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>115200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>1500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2789,9 +2946,12 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O66" s="3"/>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P66" s="3"/>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2807,8 +2967,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2845,9 +3006,12 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-      <c r="O68" s="3"/>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3"/>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2884,9 +3048,12 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-      <c r="O69" s="3"/>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3"/>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2923,9 +3090,12 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-      <c r="O70" s="3"/>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3"/>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2962,36 +3132,39 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-      <c r="O71" s="3"/>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3"/>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-269100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-213100</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-177600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-144100</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-72300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-400</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3001,9 +3174,12 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O72" s="3"/>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P72" s="3"/>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3040,9 +3216,12 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-      <c r="O73" s="3"/>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3"/>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3079,9 +3258,12 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-      <c r="O74" s="3"/>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3"/>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3118,36 +3300,39 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-      <c r="O75" s="3"/>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3"/>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-11200</v>
+      </c>
+      <c r="E76" s="3">
         <v>-23200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>-62100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-44300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>-22200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>47800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>52400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>60200</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3157,9 +3342,12 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O76" s="3"/>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P76" s="3"/>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3196,41 +3384,44 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-      <c r="O77" s="3"/>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3"/>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42551</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3240,36 +3431,39 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2"/>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3">
         <v>-55900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-35500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-34400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-71800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-19500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-1800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3279,9 +3473,12 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O81" s="3"/>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3"/>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3297,29 +3494,30 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E83" s="3">
         <v>2200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>6100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>4700</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
@@ -3335,9 +3533,12 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3"/>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3"/>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3374,9 +3575,12 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-      <c r="O84" s="3"/>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3"/>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3413,9 +3617,12 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-      <c r="O85" s="3"/>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3"/>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3452,9 +3659,12 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-      <c r="O86" s="3"/>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3"/>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3491,9 +3701,12 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-      <c r="O87" s="3"/>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3"/>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,36 +3743,39 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-      <c r="O88" s="3"/>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3"/>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-28700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-8100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7400</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>2600</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-12600</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
@@ -3569,9 +3785,12 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3"/>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3"/>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3587,29 +3806,30 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-800</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-800</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
@@ -3625,9 +3845,12 @@
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3"/>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P91" s="3"/>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3664,9 +3887,12 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-      <c r="O92" s="3"/>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3"/>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3703,36 +3929,39 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-      <c r="O93" s="3"/>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3"/>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>4000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-4300</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-8100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>6500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-59800</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
@@ -3742,9 +3971,12 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3"/>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3"/>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3760,8 +3992,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3798,9 +4031,12 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-      <c r="O96" s="3"/>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3"/>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3837,9 +4073,12 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-      <c r="O97" s="3"/>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3"/>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3876,9 +4115,12 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-      <c r="O98" s="3"/>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3"/>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3915,36 +4157,39 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-      <c r="O99" s="3"/>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3"/>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E100" s="3">
         <v>34300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>11600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-11500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>31900</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>60600</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
@@ -3954,30 +4199,33 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3"/>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3"/>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="E101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>1800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>600</v>
       </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3993,36 +4241,39 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3"/>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P101" s="3"/>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E102" s="3">
         <v>4800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>5300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-13500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>11800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>500</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4032,7 +4283,10 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3"/>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/BRQS_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="92">
   <si>
     <t>BRQS</t>
   </si>
@@ -770,7 +770,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>-29100</v>
+        <v>41400</v>
       </c>
       <c r="E9" s="3">
         <v>27000</v>
@@ -812,7 +812,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>81700</v>
+        <v>11100</v>
       </c>
       <c r="E10" s="3">
         <v>2600</v>
@@ -872,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>-4500</v>
+        <v>4500</v>
       </c>
       <c r="E12" s="3">
         <v>5200</v>
@@ -955,8 +955,8 @@
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>3</v>
+      <c r="D14" s="3">
+        <v>9300</v>
       </c>
       <c r="E14" s="3">
         <v>17500</v>
@@ -997,8 +997,8 @@
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>3</v>
+      <c r="D15" s="3">
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>100</v>
@@ -1054,8 +1054,8 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>62700</v>
       </c>
       <c r="E17" s="3">
         <v>74300</v>
@@ -1096,8 +1096,8 @@
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-10100</v>
       </c>
       <c r="E18" s="3">
         <v>-44800</v>
@@ -1156,8 +1156,8 @@
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>-7000</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
@@ -1198,8 +1198,8 @@
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-15400</v>
       </c>
       <c r="E21" s="3">
         <v>-42900</v>
@@ -1240,8 +1240,8 @@
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>11700</v>
       </c>
       <c r="E22" s="3">
         <v>12000</v>
@@ -1282,8 +1282,8 @@
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>-28900</v>
       </c>
       <c r="E23" s="3">
         <v>-57000</v>
@@ -1408,8 +1408,8 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-28900</v>
       </c>
       <c r="E26" s="3">
         <v>-56600</v>
@@ -1450,8 +1450,8 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-24100</v>
       </c>
       <c r="E27" s="3">
         <v>-55900</v>
@@ -1660,8 +1660,8 @@
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>7000</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
@@ -1702,8 +1702,8 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-34000</v>
       </c>
       <c r="E33" s="3">
         <v>-55900</v>
@@ -1786,8 +1786,8 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-34000</v>
       </c>
       <c r="E35" s="3">
         <v>-55900</v>
@@ -1912,7 +1912,7 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>11300</v>
+        <v>12700</v>
       </c>
       <c r="E41" s="3">
         <v>7700</v>
@@ -1995,8 +1995,8 @@
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>3500</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -2080,7 +2080,7 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>18900</v>
       </c>
       <c r="E45" s="3">
         <v>25400</v>
@@ -2121,8 +2121,8 @@
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>3</v>
+      <c r="D46" s="3">
+        <v>28000</v>
       </c>
       <c r="E46" s="3">
         <v>31200</v>
@@ -2205,8 +2205,8 @@
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>1700</v>
       </c>
       <c r="E48" s="3">
         <v>2500</v>
@@ -2247,8 +2247,8 @@
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>3</v>
+      <c r="D49" s="3">
+        <v>0</v>
       </c>
       <c r="E49" s="3">
         <v>17600</v>
@@ -2373,8 +2373,8 @@
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>3</v>
+      <c r="D52" s="3">
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
@@ -2535,8 +2535,8 @@
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>3</v>
+      <c r="D57" s="3">
+        <v>7100</v>
       </c>
       <c r="E57" s="3">
         <v>10200</v>
@@ -2619,8 +2619,8 @@
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>3</v>
+      <c r="D59" s="3">
+        <v>30900</v>
       </c>
       <c r="E59" s="3">
         <v>41700</v>
@@ -2661,8 +2661,8 @@
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D60" s="3" t="s">
-        <v>3</v>
+      <c r="D60" s="3">
+        <v>37900</v>
       </c>
       <c r="E60" s="3">
         <v>64400</v>
@@ -2745,8 +2745,8 @@
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>3</v>
+      <c r="D62" s="3">
+        <v>3400</v>
       </c>
       <c r="E62" s="3">
         <v>5500</v>
@@ -2914,7 +2914,7 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>41300</v>
+        <v>40900</v>
       </c>
       <c r="E66" s="3">
         <v>76500</v>
@@ -3141,8 +3141,8 @@
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-303200</v>
       </c>
       <c r="E72" s="3">
         <v>-269100</v>
@@ -3310,7 +3310,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-11200</v>
+        <v>-10800</v>
       </c>
       <c r="E76" s="3">
         <v>-23200</v>
@@ -3440,8 +3440,8 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-34000</v>
       </c>
       <c r="E81" s="3">
         <v>-55900</v>
@@ -3938,8 +3938,8 @@
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>3</v>
+      <c r="D94" s="3">
+        <v>-3400</v>
       </c>
       <c r="E94" s="3">
         <v>-1000</v>
